--- a/biology/Médecine/Adrian_Diel/Adrian_Diel.xlsx
+++ b/biology/Médecine/Adrian_Diel/Adrian_Diel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">August Friedrich Adrian Diel (né le 4 février 1756 à Gladenbach ; mort le 22 avril 1839 à Diez) était un médecin allemand et un des fondateurs de la pomologie au tournant du XVIIIe siècle et du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kaspar Ludwig, le père d'Adrian Diel, était chirurgien et apothicaire. August Friedrich Adrian, après des études à Giessen et Strasbourg, acquit en 1780 à Giessen un doctorat en médecine et chirurgie. Après quoi, il fut docteur à Gladenbach. En 1786 il était médecin du comte de Spaur, qui était juge à la Cour impériale de Wetzlar, et s'occupait principalement de balnéothérapie. En 1790 il prit le poste de balnéothérapiste à Bad Ems (Nassau) tout en étant médecin de l'arrondissement de Diez où il résidait. La même année, Diel devint Conseiller aulique, puis conseiller privé du duché de Nassau. Il épousa une jeune femme issue d'une famille de Diez, Maria Altgelt, mais celle-ci décéda peu après. À Diez, dans la propriété connue encore aujourd'hui sous le nom de Maison Eberhard, et que sa femme avait apportée en dot, Diel disposa de vastes vergers qui comptèrent, dit-on, jusqu'à 12 000 pommiers.
 Il acquit une certaine importance comme créateur de variétés ainsi que comme auteur d'éminents écrits pomologiques, et il posa les bases qui permirent l'essor de cette science au XIXe siècle. En plus de son travail sur la systématique des arbres fruitiers, Diel exerça son influence politique pour promouvoir la culture fruitière dans le duché de Nassau. Après que les vignes eurent été largement détruites dans les environs immédiats de Diez, à cause d'une infestation parasitaire, Diel créa également de grands vergers de pruniers. À son initiative également l'introduction des cerises sur les hauteurs des environs de Lahn, ainsi que de l'ordonnance du gouvernement de Nassau de planter des arbres fruitiers le long des routes et de créer des vergers dans les écoles.
@@ -545,10 +559,12 @@
           <t>Les fruits qui portent son nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Diels Barceloner Parmäne[1], Diels große englische Renette[2] et Diels Renette[3] étaient des variétés bien connues au XIXe siècle. La Dietzer Goldrenette[4] nous rappelle le lieu de ses travaux.
-Parmi les poires la Beurré Diel[5] rappelle le créateur de variété qu'il était (cf. Liste des variétés de poires (de)). Avec la Balduinsteiner Kinderbirne, maintenant disparue, Diel immortalisa le fait que Diez est situé près de Balduinstein.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Diels Barceloner Parmäne, Diels große englische Renette et Diels Renette étaient des variétés bien connues au XIXe siècle. La Dietzer Goldrenette nous rappelle le lieu de ses travaux.
+Parmi les poires la Beurré Diel rappelle le créateur de variété qu'il était (cf. Liste des variétés de poires (de)). Avec la Balduinsteiner Kinderbirne, maintenant disparue, Diel immortalisa le fait que Diez est situé près de Balduinstein.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pomologie
 Anleitung zu einer Obstorangerie in Scherben. 1793; 2e édition en 1798 et 3e édition in 1804 sous le titre Ueber die Anlegung einer Obstorangerie in Scherben und die Vegetation der Gewächse.
